--- a/Results/3MAfVSHATCOL_evap-cond-comp.xlsx
+++ b/Results/3MAfVSHATCOL_evap-cond-comp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aac-srv04\lab_AAC\03 Integrated Solutions\40_Project IDC 150gr\50_Solution_Engineering\40_Modelling\Oil Calculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TKlebig\Desktop\TimBAgit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="3" r:id="rId1"/>
@@ -128,13 +128,13 @@
     <definedName name="rho_hc7">'Comparison Evap - Cond - Comp'!$R$19</definedName>
     <definedName name="rho_hc8">'Comparison Evap - Cond - Comp'!$R$20</definedName>
     <definedName name="rho_hc9">'Comparison Evap - Cond - Comp'!$R$21</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$B$28</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$B$31</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$C$28</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$C$31</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
@@ -143,11 +143,11 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$K$28</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$K$31</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$D$28</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Comparison Evap - Cond - Comp'!$D$31</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>T(K)</t>
   </si>
@@ -475,6 +475,9 @@
   <si>
     <t>3. you don’t have to use Solver</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
@@ -488,8 +491,8 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1385,7 +1388,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1473,10 +1476,10 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,10 +1506,10 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="12" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="12" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="12" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="12" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,12 +1695,6 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="22" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1746,10 +1743,10 @@
     <xf numFmtId="9" fontId="0" fillId="23" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="19" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="19" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="19" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="19" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1774,6 +1771,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="15" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="15" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2771,6 +2774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2786,9 +2790,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2818,7 +2825,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="79"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="69" t="s">
@@ -2864,22 +2871,22 @@
       <c r="B2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="135">
-        <v>-7</v>
-      </c>
-      <c r="D2" s="135">
+      <c r="C2" s="133">
+        <v>-10</v>
+      </c>
+      <c r="D2" s="133">
         <f>C2+273.15</f>
-        <v>266.14999999999998</v>
-      </c>
-      <c r="E2" s="135">
+        <v>263.14999999999998</v>
+      </c>
+      <c r="E2" s="133">
         <f>F2*10^-5</f>
-        <v>3.8069128628291464</v>
-      </c>
-      <c r="F2" s="135">
+        <v>3.4512025711321996</v>
+      </c>
+      <c r="F2" s="133">
         <f>[3]!p_B("R290",D2)</f>
-        <v>380691.28628291463</v>
-      </c>
-      <c r="G2" s="136"/>
+        <v>345120.25711321994</v>
+      </c>
+      <c r="G2" s="134"/>
       <c r="H2" s="17" t="s">
         <v>30</v>
       </c>
@@ -2912,15 +2919,15 @@
       <c r="B3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="135">
+      <c r="C3" s="133">
         <v>10</v>
       </c>
-      <c r="D3" s="135">
+      <c r="D3" s="133">
         <v>10</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
       <c r="H3" s="81" t="s">
         <v>65</v>
       </c>
@@ -2949,22 +2956,22 @@
       <c r="B4" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="135">
+      <c r="C4" s="133">
         <v>35</v>
       </c>
-      <c r="D4" s="135">
+      <c r="D4" s="133">
         <f>C4+273.15</f>
         <v>308.14999999999998</v>
       </c>
-      <c r="E4" s="135">
+      <c r="E4" s="133">
         <f t="shared" ref="E4:E6" si="0">F4*10^-5</f>
         <v>12.175094906787784</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="133">
         <f>[3]!p_B("R290",D4)</f>
         <v>1217509.4906787784</v>
       </c>
-      <c r="G4" s="136"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="71" t="s">
         <v>66</v>
       </c>
@@ -2997,15 +3004,15 @@
       <c r="B5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="135">
+      <c r="C5" s="133">
         <v>0</v>
       </c>
-      <c r="D5" s="135">
+      <c r="D5" s="133">
         <v>0</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="136"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
       <c r="J5" s="79"/>
@@ -3032,22 +3039,22 @@
       <c r="B6" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="135">
+      <c r="C6" s="133">
         <v>30</v>
       </c>
-      <c r="D6" s="135">
+      <c r="D6" s="133">
         <f>C6+273.15</f>
         <v>303.14999999999998</v>
       </c>
-      <c r="E6" s="135">
+      <c r="E6" s="133">
         <f t="shared" si="0"/>
-        <v>3.8069128628291464</v>
-      </c>
-      <c r="F6" s="135">
+        <v>3.4512025711321996</v>
+      </c>
+      <c r="F6" s="133">
         <f>F2</f>
-        <v>380691.28628291463</v>
-      </c>
-      <c r="G6" s="136"/>
+        <v>345120.25711321994</v>
+      </c>
+      <c r="G6" s="134"/>
       <c r="H6" s="79"/>
       <c r="I6" s="79"/>
       <c r="J6" s="79"/>
@@ -3074,11 +3081,11 @@
       <c r="B7" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="138">
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="136">
         <v>0.1</v>
       </c>
       <c r="H7" s="79"/>
@@ -3105,11 +3112,11 @@
       <c r="B8" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="138">
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136">
         <v>0.1</v>
       </c>
       <c r="H8" s="79"/>
@@ -3136,11 +3143,11 @@
       <c r="B9" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140">
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138">
         <f>1-G8-G7</f>
         <v>0.8</v>
       </c>
@@ -3276,7 +3283,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D13" s="105" t="s">
         <v>49</v>
@@ -3338,50 +3345,50 @@
     <row r="14" spans="1:25" ht="15.75" thickBot="1">
       <c r="A14" s="79"/>
       <c r="B14" s="96">
-        <v>3.2865503299600198</v>
+        <v>3.7156662825747904</v>
       </c>
       <c r="C14" s="26">
         <f>LN(LN(B14+0.7+EXP(-B14)*BESSELK(B14+1.244068,0)))</f>
-        <v>0.32424369419865234</v>
+        <v>0.39553597656855888</v>
       </c>
       <c r="D14" s="27">
         <f>visc_hc1+visc_hc2*LN(F14)+visc_hc3*LN(F14)^2+E14*(visc_hc4+visc_hc5*LN(F14)+visc_hc6*LN(F14)^2)+E14^2*(visc_hc7+visc_hc8*LN(F14)+visc_hc9*LN(F14)^2)</f>
-        <v>0.32424278955343316</v>
+        <v>0.39553555238720195</v>
       </c>
       <c r="E14" s="61">
         <v>0.35361269914083598</v>
       </c>
       <c r="F14" s="98">
         <f>G14+273.15</f>
-        <v>266.14999999999998</v>
+        <v>263.14999999999998</v>
       </c>
       <c r="G14" s="99">
         <f>C2</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="H14" s="100">
         <f>E2</f>
-        <v>3.8069128628291464</v>
+        <v>3.4512025711321996</v>
       </c>
       <c r="I14" s="26">
         <f>LOG(H14)</f>
-        <v>0.58057293627704987</v>
+        <v>0.53797045130625343</v>
       </c>
       <c r="J14" s="101">
         <f>press_hc1+press_hc2/F14+press_hc3/(F14^2)+LOG(E14)*(press_hc4+press_hc5/F14+press_hc6/(F14^2))+LOG(E14)^2*(press_hc7+press_hc8/F14+press_hc9/(F14^2))</f>
-        <v>0.58057338836165906</v>
+        <v>0.53945783809355929</v>
       </c>
       <c r="K14" s="94">
         <f>(C14-D14)^2</f>
-        <v>8.1838297258460807E-13</v>
+        <v>1.7992982356557089E-13</v>
       </c>
       <c r="L14" s="95">
         <f>(I14-J14)^2</f>
-        <v>2.0438049386888014E-13</v>
+        <v>2.212319455052067E-6</v>
       </c>
       <c r="M14" s="97">
         <f>(rho_hc1+rho_hc2*F14+rho_hc3*F14^2)+(E14)*(rho_hc4+rho_hc5*F14+rho_hc6*F14^2)+((E14)^2)*(rho_hc7+rho_hc8*F14+rho_hc9*F14^2)</f>
-        <v>0.7845961547813215</v>
+        <v>0.78754710847798315</v>
       </c>
       <c r="N14" s="77"/>
       <c r="O14" s="23" t="s">
@@ -3412,24 +3419,24 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1">
       <c r="A15" s="79"/>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="131" t="s">
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="133"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="77"/>
       <c r="O15" s="23" t="s">
         <v>11</v>
@@ -3735,11 +3742,11 @@
       </c>
       <c r="H20" s="100">
         <f>E6</f>
-        <v>3.8069128628291464</v>
+        <v>3.4512025711321996</v>
       </c>
       <c r="I20" s="26">
         <f>LOG(H20)</f>
-        <v>0.58057293627704987</v>
+        <v>0.53797045130625343</v>
       </c>
       <c r="J20" s="101">
         <f>press_hc1+press_hc2/F20+press_hc3/(F20^2)+LOG(E20)*(press_hc4+press_hc5/F20+press_hc6/(F20^2))+LOG(E20)^2*(press_hc7+press_hc8/F20+press_hc9/(F20^2))</f>
@@ -3751,7 +3758,7 @@
       </c>
       <c r="L20" s="95">
         <f>(I20-J20)^2</f>
-        <v>8.358106932042492E-16</v>
+        <v>1.8149741889967471E-3</v>
       </c>
       <c r="M20" s="97">
         <f>(rho_hc1+rho_hc2*F20+rho_hc3*F20^2)+(E20)*(rho_hc4+rho_hc5*F20+rho_hc6*F20^2)+((E20)^2)*(rho_hc7+rho_hc8*F20+rho_hc9*F20^2)</f>
@@ -3956,50 +3963,50 @@
     <row r="25" spans="1:25" ht="15.75" thickBot="1">
       <c r="A25" s="79"/>
       <c r="B25" s="96">
-        <v>1.8302523594380908</v>
+        <v>1.9545539022374974</v>
       </c>
       <c r="C25" s="26">
         <f>LN(LN(B25+0.7+EXP(-B25)*BESSELK(B25+1.244068,0)))</f>
-        <v>-7.2207446647587797E-2</v>
+        <v>-2.2501133414041339E-2</v>
       </c>
       <c r="D25" s="27">
         <f>visc_3M1+visc_3M2*LN(F25)+visc_3M3*LN(F25)^2+E25*(visc_3M4+visc_3M5*LN(F25)+visc_3M6*LN(F25)^2)+E25^2*(visc_3M7+visc_3M8*LN(F25)+visc_3M9*LN(F25)^2)</f>
-        <v>-7.2206878754636494E-2</v>
+        <v>-2.2501332664878582E-2</v>
       </c>
       <c r="E25" s="61">
         <v>0.41002513715170685</v>
       </c>
       <c r="F25" s="98">
         <f>G25+273.15</f>
-        <v>266.14999999999998</v>
+        <v>263.14999999999998</v>
       </c>
       <c r="G25" s="99">
         <f>C2</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="H25" s="100">
         <f>E2</f>
-        <v>3.8069128628291464</v>
+        <v>3.4512025711321996</v>
       </c>
       <c r="I25" s="26">
         <f>LOG(H25)</f>
-        <v>0.58057293627704987</v>
+        <v>0.53797045130625343</v>
       </c>
       <c r="J25" s="101">
         <f>press_3M1+press_3M2/F25+press_3M3/(F25^2)+LOG(E25)*(press_3M4+press_3M5/F25+press_3M6/(F25^2))+LOG(E25)^2*(press_3M7+press_3M8/F25+press_3M9/(F25^2))</f>
-        <v>0.58057340781492772</v>
+        <v>0.53890567082598062</v>
       </c>
       <c r="K25" s="94">
         <f>(C25-D25)^2</f>
-        <v>3.2250240413975206E-13</v>
+        <v>3.9700896141907362E-14</v>
       </c>
       <c r="L25" s="95">
         <f>(I25-J25)^2</f>
-        <v>2.2234797025223721E-13</v>
+        <v>8.7463555007876131E-7</v>
       </c>
       <c r="M25" s="97">
         <f>(rho_3M1+rho_3M2*F25+rho_3M3*F25^2)+(E25)*(rho_3M4+rho_3M5*F25+rho_3M6*F25^2)+((E25)^2)*(rho_3M7+rho_3M8*F25+rho_3M9*F25^2)</f>
-        <v>0.75099048493221721</v>
+        <v>0.75418921246920168</v>
       </c>
       <c r="N25" s="77"/>
       <c r="O25">
@@ -4020,24 +4027,24 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1">
       <c r="A26" s="79"/>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="131" t="s">
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
       <c r="N26" s="77"/>
       <c r="O26">
         <v>-5</v>
@@ -4155,7 +4162,7 @@
         <v>0.70487721396542857</v>
       </c>
       <c r="N28" s="78"/>
-      <c r="O28" s="134" t="s">
+      <c r="O28" s="132" t="s">
         <v>31</v>
       </c>
       <c r="P28" s="74">
@@ -4284,11 +4291,11 @@
       </c>
       <c r="H31" s="100">
         <f>E6</f>
-        <v>3.8069128628291464</v>
+        <v>3.4512025711321996</v>
       </c>
       <c r="I31" s="26">
         <f>LOG(H31)</f>
-        <v>0.58057293627704987</v>
+        <v>0.53797045130625343</v>
       </c>
       <c r="J31" s="101">
         <f>press_3M1+press_3M2/F31+press_3M3/(F31^2)+LOG(E31)*(press_3M4+press_3M5/F31+press_3M6/(F31^2))+LOG(E31)^2*(press_3M7+press_3M8/F31+press_3M9/(F31^2))</f>
@@ -4300,7 +4307,7 @@
       </c>
       <c r="L31" s="95">
         <f>(I31-J31)^2</f>
-        <v>8.8856397859265964E-13</v>
+        <v>1.815052043908564E-3</v>
       </c>
       <c r="M31" s="97">
         <f>(rho_3M1+rho_3M2*F31+rho_3M3*F31^2)+(E31)*(rho_3M4+rho_3M5*F31+rho_3M6*F31^2)+((E31)^2)*(rho_3M7+rho_3M8*F31+rho_3M9*F31^2)</f>
@@ -4350,13 +4357,13 @@
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
       <c r="I33" s="79"/>
       <c r="J33" s="79"/>
       <c r="K33" s="79"/>
@@ -4424,7 +4431,7 @@
       <c r="A35" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="141" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -4432,7 +4439,7 @@
       </c>
       <c r="D35" s="31">
         <f>B14</f>
-        <v>3.2865503299600198</v>
+        <v>3.7156662825747904</v>
       </c>
       <c r="E35" s="32">
         <f>B20</f>
@@ -4466,13 +4473,13 @@
       <c r="A36" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="33">
         <f>M14</f>
-        <v>0.7845961547813215</v>
+        <v>0.78754710847798315</v>
       </c>
       <c r="E36" s="34">
         <f>M20</f>
@@ -4506,19 +4513,19 @@
       <c r="A37" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="141">
+      <c r="D37" s="139">
         <f>E14</f>
         <v>0.35361269914083598</v>
       </c>
-      <c r="E37" s="142">
+      <c r="E37" s="140">
         <f>E20</f>
         <v>4.9722037324963463E-2</v>
       </c>
-      <c r="F37" s="142">
+      <c r="F37" s="140">
         <f>E17</f>
         <v>0.37064824700902232</v>
       </c>
@@ -4546,13 +4553,13 @@
       <c r="A38" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="144"/>
+      <c r="B38" s="142"/>
       <c r="C38" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="38">
         <f>I2*D36*D37</f>
-        <v>130.39828709303978</v>
+        <v>130.88872960284638</v>
       </c>
       <c r="E38" s="39">
         <f>I2*E36*E37</f>
@@ -4564,7 +4571,7 @@
       </c>
       <c r="G38" s="115">
         <f>D38*G7</f>
-        <v>13.039828709303979</v>
+        <v>13.08887296028464</v>
       </c>
       <c r="H38" s="115">
         <f>E38*G9</f>
@@ -4576,7 +4583,7 @@
       </c>
       <c r="J38" s="119">
         <f>D38*G7+E38*G9+F38*G8</f>
-        <v>43.381058809944989</v>
+        <v>43.430103060925646</v>
       </c>
       <c r="K38" s="79"/>
       <c r="L38" s="79"/>
@@ -4598,37 +4605,37 @@
       <c r="A39" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="145"/>
+      <c r="B39" s="143"/>
       <c r="C39" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="124">
+      <c r="D39" s="122">
         <f>D38/I4</f>
-        <v>0.86932191395359859</v>
-      </c>
-      <c r="E39" s="125">
+        <v>0.87259153068564255</v>
+      </c>
+      <c r="E39" s="123">
         <f>E38/I4</f>
         <v>0.14624537507763732</v>
       </c>
-      <c r="F39" s="125">
+      <c r="F39" s="123">
         <f>F38/I4</f>
         <v>0.85278567275496864</v>
       </c>
-      <c r="G39" s="122">
+      <c r="G39" s="149">
         <f>G38/I4</f>
-        <v>8.6932191395359862E-2</v>
-      </c>
-      <c r="H39" s="122">
+        <v>8.7259153068564257E-2</v>
+      </c>
+      <c r="H39" s="149">
         <f>H38/I4</f>
         <v>0.11699630006210986</v>
       </c>
-      <c r="I39" s="122">
+      <c r="I39" s="149">
         <f>I38/I4</f>
         <v>8.5278567275496861E-2</v>
       </c>
-      <c r="J39" s="126">
+      <c r="J39" s="124">
         <f>J38/I4</f>
-        <v>0.28920705873296659</v>
+        <v>0.28953402040617099</v>
       </c>
       <c r="K39" s="79"/>
       <c r="L39" s="79"/>
@@ -4648,7 +4655,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="79"/>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="144" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -4656,7 +4663,7 @@
       </c>
       <c r="D40" s="40">
         <f>B25</f>
-        <v>1.8302523594380908</v>
+        <v>1.9545539022374974</v>
       </c>
       <c r="E40" s="41">
         <f>B31</f>
@@ -4688,13 +4695,13 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="79"/>
-      <c r="B41" s="147"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="43">
         <f>M25</f>
-        <v>0.75099048493221721</v>
+        <v>0.75418921246920168</v>
       </c>
       <c r="E41" s="44">
         <f>M31</f>
@@ -4726,19 +4733,19 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="79"/>
-      <c r="B42" s="147"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="141">
+      <c r="D42" s="139">
         <f>E25</f>
         <v>0.41002513715170685</v>
       </c>
-      <c r="E42" s="142">
+      <c r="E42" s="140">
         <f>E31</f>
         <v>5.1541915863975558E-2</v>
       </c>
-      <c r="F42" s="142">
+      <c r="F42" s="140">
         <f>E28</f>
         <v>0.41649389769737499</v>
       </c>
@@ -4764,13 +4771,13 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="79"/>
-      <c r="B43" s="147"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="50" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="55">
         <f>I2*D41*D42</f>
-        <v>144.72473899446081</v>
+        <v>145.34117158208042</v>
       </c>
       <c r="E43" s="51">
         <f>I2*E41*E42</f>
@@ -4782,7 +4789,7 @@
       </c>
       <c r="G43" s="116">
         <f>D43*G7</f>
-        <v>14.472473899446081</v>
+        <v>14.534117158208042</v>
       </c>
       <c r="H43" s="116">
         <f>E43*G9</f>
@@ -4794,7 +4801,7 @@
       </c>
       <c r="J43" s="120">
         <f>D43*G7+E43*G9+F43*G8</f>
-        <v>46.342612490386664</v>
+        <v>46.404255749148625</v>
       </c>
       <c r="K43" s="79"/>
       <c r="L43" s="79"/>
@@ -4814,13 +4821,13 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" thickBot="1">
       <c r="A44" s="79"/>
-      <c r="B44" s="148"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="56">
         <f>D43/I4</f>
-        <v>0.96483159329640533</v>
+        <v>0.96894114388053609</v>
       </c>
       <c r="E44" s="59">
         <f>E43/I4</f>
@@ -4830,21 +4837,21 @@
         <f>F43/I4</f>
         <v>0.91987478249325405</v>
       </c>
-      <c r="G44" s="121">
+      <c r="G44" s="150">
         <f>G43/I4</f>
-        <v>9.6483159329640536E-2</v>
-      </c>
-      <c r="H44" s="121">
+        <v>9.689411438805362E-2</v>
+      </c>
+      <c r="H44" s="150">
         <f>H43/I4</f>
         <v>0.12048011235694514</v>
       </c>
-      <c r="I44" s="121">
+      <c r="I44" s="150">
         <f>I43/I4</f>
         <v>9.1987478249325405E-2</v>
       </c>
       <c r="J44" s="76">
         <f>J43/I4</f>
-        <v>0.3089507499359111</v>
+        <v>0.30936170499432419</v>
       </c>
       <c r="K44" s="79"/>
       <c r="L44" s="79"/>
@@ -4880,7 +4887,7 @@
         <f t="shared" si="2"/>
         <v>0.12369045600055584</v>
       </c>
-      <c r="G45" s="123"/>
+      <c r="G45" s="121"/>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
       <c r="J45" s="79"/>
@@ -4908,31 +4915,31 @@
       </c>
       <c r="D46" s="48">
         <f>D43-D38</f>
-        <v>14.326451901421024</v>
-      </c>
-      <c r="E46" s="128">
+        <v>14.452441979234038</v>
+      </c>
+      <c r="E46" s="126">
         <f t="shared" ref="E46" si="3">E43-E38</f>
         <v>0.65321480528161757</v>
       </c>
-      <c r="F46" s="128">
+      <c r="F46" s="126">
         <f t="shared" ref="F46" si="4">F43-F38</f>
         <v>10.063366460742813</v>
       </c>
       <c r="G46" s="48">
         <f>G43-G38</f>
-        <v>1.432645190142102</v>
-      </c>
-      <c r="H46" s="129">
+        <v>1.4452441979234028</v>
+      </c>
+      <c r="H46" s="127">
         <f>H43-H38</f>
         <v>0.52257184422529335</v>
       </c>
-      <c r="I46" s="129">
+      <c r="I46" s="127">
         <f t="shared" ref="I46" si="5">I43-I38</f>
         <v>1.0063366460742813</v>
       </c>
       <c r="J46" s="49">
         <f t="shared" ref="J46" si="6">J43-J38</f>
-        <v>2.9615536804416749</v>
+        <v>2.9741526882229792</v>
       </c>
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
